--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -397,65 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>project_name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>partner_name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>name</v>
-      </c>
-      <c r="D1" t="str">
-        <v>email</v>
-      </c>
-      <c r="E1" t="str">
-        <v>rollNum</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Planning Of Toolpath</v>
-      </c>
-      <c r="B2" t="str">
-        <v>LAKSHYA</v>
-      </c>
-      <c r="C2" t="str">
-        <v>JITENDRA KUMAR PANDEY</v>
-      </c>
-      <c r="D2" t="str">
-        <v>j.pandey@iitg.ac.in</v>
-      </c>
-      <c r="E2" t="str">
-        <v>200103055</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Planning Of Toolpath</v>
-      </c>
-      <c r="B3" t="str">
-        <v>JITENDRA KUMAR PANDEY</v>
-      </c>
-      <c r="C3" t="str">
-        <v>LAKSHYA</v>
-      </c>
-      <c r="D3" t="str">
-        <v>lakshya200103071@iitg.ac.in</v>
-      </c>
-      <c r="E3" t="str">
-        <v>200103071</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -397,13 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -397,13 +397,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,11 +407,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
+    <row r="4"/>
+    <row r="5"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
   </ignoredErrors>
 </worksheet>
 </file>